--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/word_level_predictions_67.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>wireless</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1750,312 +1750,312 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3206,312 +3206,312 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>11</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>2</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>12</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>2</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>13</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>2</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>14</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>2</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>adequate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>15</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>2</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G71" s="2" t="b">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" t="n">
         <v>3</v>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" t="n">
         <v>8</v>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="inlineStr">
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>3</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>9</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>3</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>10</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4541,11 +4541,11 @@
         </is>
       </c>
       <c r="I79" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4645,11 +4645,11 @@
         </is>
       </c>
       <c r="I81" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K81" s="2" t="b">
@@ -4657,215 +4657,215 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>3</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>16</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>17</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>18</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>19</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6326,1300 +6326,1300 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>5</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>3</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>5</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>5</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>5</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>5</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>powering</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>aircraft,</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>14</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>15</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>5</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>16</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>5</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>17</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>5</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>18</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>5</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>19</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>20</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>5</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>21</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>22</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>23</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>24</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>25</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>26</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>27</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7869,589 +7869,589 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Ensure</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Ensure</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>4</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>5</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>magnets</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>7</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>magnets</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>8</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>9</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>objects</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>metal</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>10</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>objects</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>11</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>near</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>12</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>6</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>13</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>6</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/word_level_predictions_67.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>wireless</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1750,312 +1750,312 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3206,312 +3206,312 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>adequate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G71" s="2" t="b">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="G74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4541,11 +4541,11 @@
         </is>
       </c>
       <c r="I79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4645,11 +4645,11 @@
         </is>
       </c>
       <c r="I81" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K81" s="2" t="b">
@@ -4657,215 +4657,215 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Missed_E-NonEvent</t>
         </is>
       </c>
     </row>
@@ -6326,1300 +6326,1300 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>promptly</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>After</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>9</v>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>abnormal</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7881,577 +7881,577 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>6</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>4</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>6</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>there</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>5</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>6</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>6</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>6</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>7</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>6</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>magnets</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>8</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>6</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>9</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>6</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>metal</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>6</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>objects</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>11</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>6</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>near</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>12</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>6</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>13</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>6</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>14</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
